--- a/makespan.xlsx
+++ b/makespan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>598.3614842080416</v>
+        <v>1351.469694385998</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>599.5780716074985</v>
+        <v>1351.423712000223</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>599.8673905480115</v>
+        <v>1299.164296239943</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>599.7893860823915</v>
+        <v>1302.530097388161</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>597.0203796753689</v>
+        <v>1209.194079438199</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>599.8263827220045</v>
+        <v>1211.758731684463</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>598.1887755804646</v>
+        <v>1295.565053709765</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>598.4733120944775</v>
+        <v>1100.972044211302</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>599.9515779089784</v>
+        <v>1190.054471597389</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>598.7474284411811</v>
+        <v>1085.944761730089</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>597.3530923085501</v>
+        <v>677.997002898577</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>596.8984584174113</v>
+        <v>810.2088361715363</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>599.4907483781526</v>
+        <v>845.007241941664</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>599.7584991440517</v>
+        <v>930.8151932186579</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>597.2523770921604</v>
+        <v>353.3797888631078</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>599.9799243222069</v>
+        <v>221.6689800393797</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>598.8793105951773</v>
+        <v>219.2582387825336</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>599.215686053068</v>
+        <v>227.8435794315689</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>598.52</v>
+        <v>221.1606275802625</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>597.1682799599525</v>
+        <v>313.6224742559949</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>597.2398707110215</v>
+        <v>247.2629766270406</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>598.5389605251075</v>
+        <v>219.7031888981051</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>597.2939284210912</v>
+        <v>242.6012964525541</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>598.6772774718758</v>
+        <v>283.9166004785159</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>599.2998996569157</v>
+        <v>281.5438849702659</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>595.8594288356234</v>
+        <v>223.6694017510914</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>597.1151538326626</v>
+        <v>241.6451717247547</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>599.7527289032763</v>
+        <v>249.0877182798255</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>597.0403037229045</v>
+        <v>283.8617610270763</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>599.8394081517786</v>
+        <v>233.8162669851048</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>596.6567247627387</v>
+        <v>230.6779699096965</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>599.3798870710893</v>
+        <v>232.2370939264428</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>599.7566688825377</v>
+        <v>306.6906469268677</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>595.454021016038</v>
+        <v>216.4204538576333</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>598.5520901576682</v>
+        <v>235.4308347983194</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>598.4516676865054</v>
+        <v>229.1918683142815</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>599.3282692927791</v>
+        <v>242.9012330716179</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>596.9186088737412</v>
+        <v>233.1080463095634</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>597.3829648153354</v>
+        <v>219.4557457133159</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>599.1639796988377</v>
+        <v>224.7434761885069</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>598.5516162620394</v>
+        <v>284.5086636361507</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>599.3117376342282</v>
+        <v>373.1915392058642</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>597.965394329175</v>
+        <v>178.3598919523492</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>599.9486249077507</v>
+        <v>182.9134467435748</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>599.5637167236728</v>
+        <v>267.9925495187439</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>599.8216961081133</v>
+        <v>178.35524396905</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>595.3739535607249</v>
+        <v>182.2840217877903</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>599.9492260536888</v>
+        <v>315.3074876932679</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>598.9127957193032</v>
+        <v>190.9516479893718</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>597.1011969997998</v>
+        <v>193.6612651219889</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>599.807109176396</v>
+        <v>185.4602224523376</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>597.9351718946402</v>
+        <v>231.2236781646575</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>598.8734924918786</v>
+        <v>172.7393162474098</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>599.5133969656887</v>
+        <v>182.7261574538685</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>599.345367040011</v>
+        <v>311.7647006529726</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>597.7021980440124</v>
+        <v>317.7713512173898</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>598.3892253096221</v>
+        <v>177.0252846267837</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>598.5967907570295</v>
+        <v>186.3469208063449</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>599.5317114368462</v>
+        <v>216.0589219145527</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>599.5777974317859</v>
+        <v>182.0585736508827</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>599.9069879872841</v>
+        <v>178.0093636020939</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>596.679284063823</v>
+        <v>175.3852909729408</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>598.6900000000003</v>
+        <v>200.9062577505661</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>599.4488461189579</v>
+        <v>184.0947373517941</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>599.7535160049922</v>
+        <v>198.9053319973807</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>598.7904021226401</v>
+        <v>194.927413454064</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>598.6449397447736</v>
+        <v>203.7716674640137</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>599.2731988013145</v>
+        <v>272.5831878214761</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>596.065444845856</v>
+        <v>234.1526858359115</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>598.8630294175022</v>
+        <v>186.4577493006175</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>599.2539245670573</v>
+        <v>182.7943787955249</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>599.5021397601934</v>
+        <v>183.4927756505744</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>596.8011940256475</v>
+        <v>176.0593013389085</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>599.6279843247215</v>
+        <v>180.3550857015186</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>597.8434811421062</v>
+        <v>188.4488150363683</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>599.4141248081169</v>
+        <v>296.9457780832154</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>597.7871824989689</v>
+        <v>179.5496661020023</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>598.2804327250291</v>
+        <v>180.4231118671093</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>599.9155409797404</v>
+        <v>193.1026656585158</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>598.5709502372255</v>
+        <v>196.2115698727182</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>599.8774424606574</v>
+        <v>176.4446150629305</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>599.0550765580206</v>
+        <v>236.2137089995117</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>598.981787965208</v>
+        <v>182.4188310900945</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>599.8799679030174</v>
+        <v>205.5454652090221</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>599.827742467367</v>
+        <v>180.3810184423169</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>599.7557514330107</v>
+        <v>178.8794785874887</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>599.4941782751399</v>
+        <v>174.2376508867004</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>598.5457549074505</v>
+        <v>180.1701594575969</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>597.4375029600441</v>
+        <v>173.2580036108317</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>598.3754205859724</v>
+        <v>176.549816162137</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>598.0687860608197</v>
+        <v>150.7303571632089</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>596.6243019088024</v>
+        <v>176.3140217613345</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>599.0942164344755</v>
+        <v>138.5221030448039</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>597.4783929351199</v>
+        <v>148.1793415184459</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>598.4218132381269</v>
+        <v>152.5965510873514</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>599.4404615980395</v>
+        <v>134.7475531286455</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>598.777916240109</v>
+        <v>138.3475238825735</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>599.4014604107024</v>
+        <v>143.4042028754564</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>594.6298007076563</v>
+        <v>291.6860824224237</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>595.3267198699593</v>
+        <v>160.5086263673726</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>599.9811507576787</v>
+        <v>166.1201353249517</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>598.1542132752081</v>
+        <v>146.9292516148818</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>599.3071715858541</v>
+        <v>152.3898757931313</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>599.9571256630112</v>
+        <v>145.9207135120103</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>598.9108002623116</v>
+        <v>136.8014342979701</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>599.7833579287576</v>
+        <v>140.5449389176569</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>599.8323347309687</v>
+        <v>143.8396038285177</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>599.528618484658</v>
+        <v>135.4922133054312</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>598.4844370031077</v>
+        <v>164.2410207809042</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>599.681467586859</v>
+        <v>248.8547387396193</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>599.8356746456205</v>
+        <v>145.9472734255652</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>594.9774112964084</v>
+        <v>143.9833735385042</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>599.2250651017298</v>
+        <v>283.6445350026281</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>598.0176099806673</v>
+        <v>138.8703013696334</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>597.5109455984114</v>
+        <v>163.4811008268666</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>598.5652745131175</v>
+        <v>172.0863862717515</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>597.722742102823</v>
+        <v>132.8495013717829</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>599.9252886243092</v>
+        <v>151.8674124038322</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>598.7371318202212</v>
+        <v>141.2981798793944</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>599.6578099631462</v>
+        <v>147.5434108438855</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>598.2853001877373</v>
+        <v>297.2742355728984</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>599.6099999999999</v>
+        <v>141.4676450863353</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>597.6050680950245</v>
+        <v>155.0745044276145</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>599.4018297498708</v>
+        <v>137.4368028866917</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>596.2337339404074</v>
+        <v>174.8468832626463</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>598.4800000000001</v>
+        <v>143.352106395448</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>599.0391049376509</v>
+        <v>145.9682202331497</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>599.7806801542152</v>
+        <v>146.700983017098</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>599.1067368475678</v>
+        <v>156.6394234209095</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>598.932354692217</v>
+        <v>150.9405776428718</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>598.7964030592459</v>
+        <v>157.2132843154383</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>599.7821842936779</v>
+        <v>153.6139873678972</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>598.7550662578258</v>
+        <v>168.2372281439071</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>598.157588989969</v>
+        <v>171.626371667927</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>599.9927830221038</v>
+        <v>135.5752475493292</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>599.09346689811</v>
+        <v>139.8882660904831</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>596.7348660406952</v>
+        <v>143.6526179894465</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>597.8321593683074</v>
+        <v>139.8094229433108</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>598.1033968228408</v>
+        <v>140.6619448564375</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>599.4142010773498</v>
+        <v>170.6338131082165</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>596.796231064208</v>
+        <v>127.9216441257595</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>598.6348812249913</v>
+        <v>158.0571745516294</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>594.4852090967864</v>
+        <v>136.7276800072891</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>599.8865403743555</v>
+        <v>151.7402826864477</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>599.586605136222</v>
+        <v>146.0481792429827</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>599.8070200108958</v>
+        <v>137.9738144461715</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>598.7403677750667</v>
+        <v>155.258699150128</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>598.5020661553363</v>
+        <v>161.6996407719303</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>599.113883229509</v>
+        <v>155.1623370282385</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>599.6360438176608</v>
+        <v>190.6522230395372</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>596.8679854767573</v>
+        <v>137.2484827033673</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>596.1709757085886</v>
+        <v>141.5670213890155</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>598.0163010824109</v>
+        <v>151.0652454105132</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>599.6327253912864</v>
+        <v>160.8965007424682</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>596.7457890642097</v>
+        <v>156.8097212331197</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>596.8940212391703</v>
+        <v>165.5336653914962</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>598.5989893279497</v>
+        <v>150.7883989249402</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>599.52</v>
+        <v>141.2169177504596</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>599.9029933890627</v>
+        <v>141.7962882895579</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>599.7660668465369</v>
+        <v>144.6329477801881</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>594.1838341909387</v>
+        <v>146.3426036088704</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>599.7199451306772</v>
+        <v>161.8478351674056</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>595.5808138176139</v>
+        <v>139.3502777818037</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>596.9249675162823</v>
+        <v>140.4820449127728</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>598.885580376461</v>
+        <v>147.8159841062359</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>597.331657020275</v>
+        <v>133.9131683841428</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>598.7475040003948</v>
+        <v>142.7875846263604</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>593.5481328388632</v>
+        <v>143.3686316189718</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>597.8621467433184</v>
+        <v>241.3622163028242</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>598.0919478203725</v>
+        <v>136.6177559183967</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>598.0238728645514</v>
+        <v>165.0282831659944</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>599.4596566931651</v>
+        <v>141.7876921787581</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>599.1715644179554</v>
+        <v>138.4694937491046</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>598.8607253670617</v>
+        <v>156.4893004855312</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>599.5229832444719</v>
+        <v>375.9228038883844</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>599.4651989417779</v>
+        <v>139.7101186378332</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>598.3743157482921</v>
+        <v>131.5657465581125</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>597.8037000509514</v>
+        <v>232.117736242525</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>599.7597990224314</v>
+        <v>139.3403047578845</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>599.8335121859091</v>
+        <v>143.2886996624174</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>599.8107251036179</v>
+        <v>141.1409712889912</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>599.9893206469079</v>
+        <v>142.2639352950214</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>598.9581103565527</v>
+        <v>141.3344325013046</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>599.8742025837167</v>
+        <v>140.0861854675104</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>599.2966007860374</v>
+        <v>159.2841179317461</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>599.8303675914618</v>
+        <v>141.0731378861734</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>598.9971056635237</v>
+        <v>151.7819544125614</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>598.0666449666367</v>
+        <v>144.4102150696536</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>597.5775920618142</v>
+        <v>133.6550953033074</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>599.7488348974837</v>
+        <v>256.2111553096368</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>599.8830526791099</v>
+        <v>153.9379462674867</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>599.8769475231177</v>
+        <v>145.7176511155719</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>599.3925888878208</v>
+        <v>150.7486119065158</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>597.9053156489815</v>
+        <v>261.23958268883</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>599.4344826658031</v>
+        <v>188.2728935306083</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>599.4739398184588</v>
+        <v>298.1041999005527</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>597.9998413028094</v>
+        <v>148.0764884115275</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>599.3072221028184</v>
+        <v>236.4366560053944</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>599.4267095689132</v>
+        <v>143.7181846827295</v>
       </c>
     </row>
     <row r="201">
@@ -2037,431 +2037,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>594.8855562312169</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>598.1442777010669</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>599.3403878196974</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>596.4000000000002</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>599.4872425436074</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>598.4121498955768</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>599.1280152707554</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>599.0431271459353</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>599.8183519303609</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>599.9552838300036</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>597.4313939692993</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>599.508907604064</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>599.8995127486579</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>599.1152169134895</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>598.5581393731945</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>598.0404771313262</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>599.267021574053</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>597.1979560828488</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>598.2169445592663</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>597.297166697082</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>599.9783061917799</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>598.4941359855472</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>594.8867506419678</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>599.3422683925488</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>598.8807167366689</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>599.6103299259055</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>599.5906480654339</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>599.1659822112471</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>599.0813386148145</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>597.8445698819107</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>598.2498992674136</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>594.2631367772569</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>599.0461070249742</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>596.1950373068582</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>599.6898146178114</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>599.0268863548624</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>599.3370864016354</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>599.0932154048144</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>595.2297418819987</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>596.8864939853306</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>597.7603072281895</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>599.7647252769698</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>596.2462059410126</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>599.6436598938009</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>599.1615331390606</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>599.205688472734</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>596.5806793251245</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>595.9572100682193</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>597.9045487755652</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>597.9895138472369</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>599.6538386118557</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>599.1662533207742</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>599.6840349263271</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>595.9134483552151</v>
+        <v>170.2666618930665</v>
       </c>
     </row>
   </sheetData>

--- a/makespan.xlsx
+++ b/makespan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,114 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Makespan</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>506.1398641093235</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>497.1946877594227</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>499.9904286819471</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>496.5640717980234</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>507.569859736797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>620.998150026993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>511.8885049041423</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>511.0883174129415</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>552.5611879081068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>486.8700646326363</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>544.8496281959242</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>559.1929717053375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>524.1160938577142</v>
       </c>
     </row>
   </sheetData>

--- a/makespan.xlsx
+++ b/makespan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,406 @@
         <v>524.1160938577142</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>566.2674190421076</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>495.5033639346639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>511.031531170075</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>670.8927110879226</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>528.5748495824589</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>492.1205882634501</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>503.5959779761499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>496.3260531053073</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>493.6602590195448</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>496.7220354297917</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>503.9755850898828</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>555.5353494090153</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>493.3721364691527</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>523.2813989344568</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>498.9690360121991</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>554.3015632944737</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>497.8005528552812</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>591.0545679710559</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>499.6756194330194</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>491.2480680466251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>524.8170510292783</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>548.9697497453327</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>556.258638585928</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>617.3807620279649</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>496.4719728533826</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>543.3488548853709</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>512.775018620417</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>495.8079233409363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>497.9396200245055</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>550.1097777692307</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>506.0661992739304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>608.9810188942149</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>609.1585530515446</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>506.0132992922369</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>536.6330791475945</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>499.7965674955582</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>550.1926739434823</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>494.9627856455317</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>517.0081004504606</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>521.0361497759695</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>487.1212103491378</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>494.9179130448858</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>498.2938126756482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>523.09862680421</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>627.8164286949724</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>488.0017749203982</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>640.2908238579048</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>650.0851375183248</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>517.793915217001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>484.3372955662899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/makespan.xlsx
+++ b/makespan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>506.1398641093235</v>
+        <v>676.2015929491716</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>497.1946877594227</v>
+        <v>547.893680598529</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>499.9904286819471</v>
+        <v>590.0005253237397</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>496.5640717980234</v>
+        <v>582.274849954614</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>507.569859736797</v>
+        <v>502.7663616427217</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620.998150026993</v>
+        <v>495.7110707583966</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>511.8885049041423</v>
+        <v>590.7185309420776</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>511.0883174129415</v>
+        <v>492.7187582878011</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>552.5611879081068</v>
+        <v>570.1013038734814</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>486.8700646326363</v>
+        <v>634.7720781570379</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>544.8496281959242</v>
+        <v>509.9443371503338</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>559.1929717053375</v>
+        <v>580.4136355236325</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>524.1160938577142</v>
+        <v>501.2590548917784</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566.2674190421076</v>
+        <v>567.9372691961273</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>495.5033639346639</v>
+        <v>506.3703689409828</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>511.031531170075</v>
+        <v>503.6621092354623</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>670.8927110879226</v>
+        <v>501.5462232360895</v>
       </c>
     </row>
     <row r="19">
@@ -581,367 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>528.5748495824589</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>492.1205882634501</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>503.5959779761499</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>496.3260531053073</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>493.6602590195448</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>496.7220354297917</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>503.9755850898828</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>555.5353494090153</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>493.3721364691527</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>523.2813989344568</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>498.9690360121991</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>554.3015632944737</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>497.8005528552812</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>591.0545679710559</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>499.6756194330194</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>491.2480680466251</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>524.8170510292783</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>548.9697497453327</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>556.258638585928</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>617.3807620279649</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>496.4719728533826</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>543.3488548853709</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>512.775018620417</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>495.8079233409363</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>497.9396200245055</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>550.1097777692307</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>506.0661992739304</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>608.9810188942149</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>609.1585530515446</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>506.0132992922369</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>536.6330791475945</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>499.7965674955582</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>550.1926739434823</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>494.9627856455317</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>517.0081004504606</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>521.0361497759695</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>487.1212103491378</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>494.9179130448858</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>498.2938126756482</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>523.09862680421</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>627.8164286949724</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>488.0017749203982</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>640.2908238579048</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>650.0851375183248</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>517.793915217001</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>484.3372955662899</v>
+        <v>490.4794384962909</v>
       </c>
     </row>
   </sheetData>

--- a/makespan.xlsx
+++ b/makespan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>676.2015929491716</v>
+        <v>424.6794934220675</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>547.893680598529</v>
+        <v>303.7255633004793</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>590.0005253237397</v>
+        <v>518.5314288198587</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582.274849954614</v>
+        <v>608.2996597085086</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502.7663616427217</v>
+        <v>625.8036315796331</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>495.7110707583966</v>
+        <v>586.5962093425454</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590.7185309420776</v>
+        <v>295.4818464136139</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>492.7187582878011</v>
+        <v>304.0576047746262</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>570.1013038734814</v>
+        <v>624.4039952860599</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634.7720781570379</v>
+        <v>608.1217915626715</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>509.9443371503338</v>
+        <v>296.2933762012212</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>580.4136355236325</v>
+        <v>393.3445174752414</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>501.2590548917784</v>
+        <v>504.1780475559152</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>567.9372691961273</v>
+        <v>606.2884577056628</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506.3703689409828</v>
+        <v>495.5036772074726</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>503.6621092354623</v>
+        <v>380.2336097766023</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>501.5462232360895</v>
+        <v>294.3250786587187</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,439 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>490.4794384962909</v>
+        <v>489.7079251444314</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>336.6657499834881</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>572.5354165817802</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>499.4318559793334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>609.5771723941824</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>297.0892481911141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>495.1462393919994</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>490.0553105382476</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>595.8061586910716</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>401.4098958142206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>292.0885039419951</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>293.2425783224111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>299.4227484106549</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>295.2451892586352</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>290.6565544950786</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>514.4224614793674</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>315.6437477078773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>598.3919934870574</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>493.8368533984545</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>507.1780377562464</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>294.4757056403143</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>501.040436653076</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>607.864901489887</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>584.7700883949312</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>498.5846901402193</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>526.3549761825765</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>594.5598092529708</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>306.1742749233044</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>497.3226120656144</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>299.8184522650834</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>415.5565645545455</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>289.3502398136102</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>591.5581475024877</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>605.4673126463953</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>405.3431391389354</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>563.4387778069341</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>581.3045366652796</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>598.6748317894996</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>809.099757934894</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>500.3101542568109</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>403.110451863232</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>589.8565261126975</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>297.7723378132511</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>592.3949960880694</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>507.4657378324833</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>490.7998081884952</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>604.553306647829</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>593.6248476211621</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>495.5467653818042</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>295.4140202921037</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>576.6328994997767</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>880.4182580395125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>497.7752187627534</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>298.9360965174594</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>497.7457704004985</v>
       </c>
     </row>
   </sheetData>

--- a/makespan.xlsx
+++ b/makespan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,66 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Makespan</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>514.5373785630709</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>488.2029891533244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>535.4378973341805</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>488.8595273667013</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>458.8915741043235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>521.5038927693139</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>525.0700127156165</v>
       </c>
     </row>
   </sheetData>

--- a/makespan.xlsx
+++ b/makespan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514.5373785630709</v>
+        <v>788.3109425048734</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>488.2029891533244</v>
+        <v>768.5429912466941</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>535.4378973341805</v>
+        <v>776.1864471805458</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>488.8595273667013</v>
+        <v>774.8965723886085</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>458.8915741043235</v>
+        <v>783.4583424886105</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>521.5038927693139</v>
+        <v>770.017835987838</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,431 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>525.0700127156165</v>
+        <v>856.4771392826947</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>775.9937078580286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>778.3244067797423</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>788.3109425048734</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>760.3737772460414</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>767.6690701232868</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>770.017835987838</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>836.4771392826947</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>763.9044640447485</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>778.3244067797423</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>773.3311978575084</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>787.6201659258157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>800.348270617751</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>763.9044640447485</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>780.1042290789513</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>836.4771392826947</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>767.376124387016</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>794.6480196950807</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>816.4771392826947</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>766.1957331626562</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>766.5603250761311</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>770.6164206728693</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>780.3971748152221</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>771.6184649307603</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>806.186256544052</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>796.4307683504552</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>756.4307683504552</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>836.4307683504552</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>754.186256544052</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>856.4307683504552</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>846.186256544052</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>816.4307683504552</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>724.6951233881267</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>993.3752520327482</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>932.4307683504552</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>853.3752520327482</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>892.4307683504552</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>914.186256544052</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>776.4307683504552</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>864.4307683504552</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>933.3752520327482</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>846.186256544052</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>738.1033567246835</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>738.1033567246835</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>733.5067331588581</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>758.1033567246835</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>796.4307683504552</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>776.4307683504552</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>772.4307683504552</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>884.4307683504552</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>756.186256544052</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>825.3752520327482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>824.186256544052</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>758.2043004493426</v>
       </c>
     </row>
   </sheetData>

--- a/makespan.xlsx
+++ b/makespan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>788.3109425048734</v>
+        <v>779.1743913655807</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>768.5429912466941</v>
+        <v>753.0442683708964</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776.1864471805458</v>
+        <v>761.3342427031434</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774.8965723886085</v>
+        <v>793.4466391381651</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783.4583424886105</v>
+        <v>757.1293505083709</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>770.017835987838</v>
+        <v>753.6821170406708</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856.4771392826947</v>
+        <v>753.6821170406708</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775.9937078580286</v>
+        <v>751.7934006052822</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778.3244067797423</v>
+        <v>753.0442683708964</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>788.3109425048734</v>
+        <v>762.3363369268042</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760.3737772460414</v>
+        <v>827.9904297542945</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>767.6690701232868</v>
+        <v>763.1492339837015</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>770.017835987838</v>
+        <v>755.9212124491844</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836.4771392826947</v>
+        <v>760.2499724216217</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763.9044640447485</v>
+        <v>766.1793401242302</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>778.3244067797423</v>
+        <v>753.0442683708964</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>773.3311978575084</v>
+        <v>753.6821170406708</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>787.6201659258157</v>
+        <v>768.9028485220357</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>800.348270617751</v>
+        <v>827.9904297542945</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>763.9044640447485</v>
+        <v>753.6821170406708</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>780.1042290789513</v>
+        <v>767.1801698699012</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>836.4771392826947</v>
+        <v>763.1890384540818</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>767.376124387016</v>
+        <v>767.1801698699012</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>794.6480196950807</v>
+        <v>800.7185344462298</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>816.4771392826947</v>
+        <v>766.1747438301004</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>766.1957331626562</v>
+        <v>762.3363369268042</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>766.5603250761311</v>
+        <v>827.9904297542945</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>770.6164206728693</v>
+        <v>824.1197802626652</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>780.3971748152221</v>
+        <v>755.9171431460171</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>771.6184649307603</v>
+        <v>827.9904297542945</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>806.186256544052</v>
+        <v>767.1801698699012</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>796.4307683504552</v>
+        <v>790.6725467949653</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>756.4307683504552</v>
+        <v>868.7838303595767</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>836.4307683504552</v>
+        <v>756.2551779337502</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>754.186256544052</v>
+        <v>780.5182994669907</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>856.4307683504552</v>
+        <v>835.0113070456418</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>846.186256544052</v>
+        <v>838.461127300768</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>816.4307683504552</v>
+        <v>817.5087292212852</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>724.6951233881267</v>
+        <v>1023.910482360559</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>993.3752520327482</v>
+        <v>767.8817808574219</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>932.4307683504552</v>
+        <v>763.1492339837015</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>853.3752520327482</v>
+        <v>813.7808818413085</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>892.4307683504552</v>
+        <v>829.1850877867984</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>914.186256544052</v>
+        <v>813.4466391381651</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>776.4307683504552</v>
+        <v>761.3342427031434</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>864.4307683504552</v>
+        <v>763.1890384540818</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>933.3752520327482</v>
+        <v>965.1854749325332</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>846.186256544052</v>
+        <v>840.2368339132205</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>738.1033567246835</v>
+        <v>685.7263854115672</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>738.1033567246835</v>
+        <v>836.0945544541771</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>733.5067331588581</v>
+        <v>876.5075217976103</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>758.1033567246835</v>
+        <v>968.8863370060507</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>796.4307683504552</v>
+        <v>1139.796479000705</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>776.4307683504552</v>
+        <v>780.5182994669907</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>772.4307683504552</v>
+        <v>812.1496780024379</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>884.4307683504552</v>
+        <v>761.3342427031434</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>756.186256544052</v>
+        <v>551.3342427031434</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>825.3752520327482</v>
+        <v>792.0148753083375</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>824.186256544052</v>
+        <v>1019.191485852218</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,183 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>758.2043004493426</v>
+        <v>773.246404158926</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1019.173509321237</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>717.9904297542945</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>823.4006514869006</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>735.018453967475</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>789.862286910572</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1056.207421660466</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>832.8677684299313</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>395.8313510243723</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>888.0348062636961</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>763.1492339837015</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>347.6861153359002</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>671.8546363937949</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>307.4204816032411</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>630.2499724216217</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>800.6149214188765</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>858.7458118751146</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>707.5783363897268</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>537.9904297542944</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>802.4353478036514</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>765.7263854115672</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>646.3760200079473</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>756.2551779337502</v>
       </c>
     </row>
   </sheetData>
